--- a/soc_reports.xlsx
+++ b/soc_reports.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="URL Analysis" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Summary" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="MITRE Analysis" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18,7 +19,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -30,15 +31,8 @@
       <b val="1"/>
       <color rgb="00FFFFFF"/>
     </font>
-    <font>
-      <b val="1"/>
-      <sz val="14"/>
-    </font>
-    <font>
-      <b val="1"/>
-    </font>
   </fonts>
-  <fills count="10">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -59,36 +53,9 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FF0000"/>
-        <bgColor rgb="00FF0000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="00FFA500"/>
         <bgColor rgb="00FFA500"/>
       </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFF00"/>
-        <bgColor rgb="00FFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ADFF2F"/>
-        <bgColor rgb="00ADFF2F"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00CCCCCC"/>
-        <bgColor rgb="00CCCCCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid"/>
     </fill>
   </fills>
   <borders count="1">
@@ -103,20 +70,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -482,7 +442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,11 +451,12 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="23" customWidth="1" min="2" max="2"/>
+    <col width="55" customWidth="1" min="2" max="2"/>
     <col width="15" customWidth="1" min="3" max="3"/>
     <col width="12" customWidth="1" min="4" max="4"/>
     <col width="37" customWidth="1" min="5" max="5"/>
     <col width="189" customWidth="1" min="6" max="6"/>
+    <col width="13" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -529,16 +490,21 @@
           <t>VirusTotal Link</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MITRE Score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-12-21 07:24:31</t>
+          <t>2024-12-21 09:22:39</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.google.com</t>
+          <t>http://testmyids.com/</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
@@ -558,8 +524,81 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>https://www.virustotal.com/gui/url/dd014af5ed6b38d9130e3f466f850e46d21b951199d53a18ef29ee9341614eaf/detection/u-dd014af5ed6b38d9130e3f466f850e46d21b951199d53a18ef29ee9341614eaf-1734761965</t>
-        </is>
+          <t>https://www.virustotal.com/gui/url/af58e7aeb8d1a6527219c52ec93ccc62e4c5db0c315f7695ddafc34a93562a0d/detection/u-af58e7aeb8d1a6527219c52ec93ccc62e4c5db0c315f7695ddafc34a93562a0d-1728661660</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2024-12-21 09:22:39</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>http://phishtank.com/phish_detail.php?phish_id=123456</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>LAV</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0/96</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Ingen umiddelbar handling nødvendig</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>https://www.virustotal.com/gui/url/599126acdfa501617cc83bad6947902c654ef378b91562874219477439371adf/detection/u-599126acdfa501617cc83bad6947902c654ef378b91562874219477439371adf-1734767000</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2024-12-21 09:22:40</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>http://malware.wicar.org/data/js_crypto_miner.html</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>MEDIUM</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13/96</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Vurder manuell gjennomgang</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>https://www.virustotal.com/gui/url/734d84d52590dc46b0ea7b56aa61cb558e8c5e5bdf4f548511f53d61061a34ac/detection/u-734d84d52590dc46b0ea7b56aa61cb558e8c5e5bdf4f548511f53d61061a34ac-1734110113</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -573,7 +612,25 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -581,157 +638,84 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="22" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="30" customWidth="1" min="3" max="3"/>
+    <col width="55" customWidth="1" min="1" max="1"/>
+    <col width="39" customWidth="1" min="2" max="2"/>
+    <col width="51" customWidth="1" min="3" max="3"/>
+    <col width="18" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>URL Analysis Summary</t>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Techniques</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Tactics</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>MITRE Risk Score</t>
         </is>
       </c>
     </row>
-    <row r="2"/>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>http://testmyids.com/</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+    </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Total URLs Analyzed:</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
+          <t>http://phishtank.com/phish_detail.php?phish_id=123456</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>T1566, T1204.001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>initial-access, execution</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>100</v>
       </c>
     </row>
-    <row r="4"/>
-    <row r="5">
-      <c r="A5" s="4" t="inlineStr">
-        <is>
-          <t>Risk Distribution</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Risk Category</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Count</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>URLs</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="5" t="inlineStr">
-        <is>
-          <t>KRITISK</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="6" t="inlineStr">
-        <is>
-          <t>HØY</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="7" t="inlineStr">
-        <is>
-          <t>MEDIUM</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="8" t="inlineStr">
-        <is>
-          <t>LAV-MEDIUM</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="inlineStr">
-        <is>
-          <t>LAV</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>http://www.google.com (0/96)</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="9" t="inlineStr">
-        <is>
-          <t>UKLAR</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="10" t="inlineStr">
-        <is>
-          <t>FEIL</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>http://malware.wicar.org/data/js_crypto_miner.html</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>T1587, T1102, T1071.001, T1588, T1496</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>resource-development, impact, command-and-control</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
